--- a/data_lulus_diterima_umm.xlsx
+++ b/data_lulus_diterima_umm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\04_UMM\23umm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3589D24B-CDF1-48E4-A3CC-45E4F481FDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACA607C-AAE7-4663-9B0A-E9C2638F2748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="17">
   <si>
     <t>L</t>
   </si>
@@ -135,10 +135,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -159,16 +160,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B8134A2D-DFCD-4532-869A-29642ED521BD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -194,6 +189,7 @@
       <sheetName val="PRODI"/>
       <sheetName val="Sheet1"/>
       <sheetName val="PRODI_2019"/>
+      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -905,7 +901,7 @@
             <v>Strata 1 - Reguler</v>
           </cell>
           <cell r="J36" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="37">
@@ -1769,6 +1765,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2071,11 +2068,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H643"/>
+  <dimension ref="A1:H644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A626" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I636" sqref="I636"/>
+      <pane ySplit="1" topLeftCell="A633" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H647" sqref="H647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20002,16 +19999,16 @@
       </c>
     </row>
     <row r="627" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A627" s="8">
+      <c r="A627" s="3">
         <v>9603123044</v>
       </c>
       <c r="B627" t="s">
         <v>0</v>
       </c>
-      <c r="C627" s="9">
+      <c r="C627">
         <v>8882230032</v>
       </c>
-      <c r="D627" s="10">
+      <c r="D627" s="2">
         <v>8882</v>
       </c>
       <c r="E627" s="1" t="str">
@@ -20031,16 +20028,16 @@
       </c>
     </row>
     <row r="628" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A628" s="8">
+      <c r="A628" s="3">
         <v>9603123066</v>
       </c>
       <c r="B628" t="s">
         <v>0</v>
       </c>
-      <c r="C628" s="9">
+      <c r="C628">
         <v>5551230135</v>
       </c>
-      <c r="D628" s="10">
+      <c r="D628" s="2">
         <v>20102</v>
       </c>
       <c r="E628" s="1" t="str">
@@ -20060,16 +20057,16 @@
       </c>
     </row>
     <row r="629" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A629" s="8">
+      <c r="A629" s="3">
         <v>9603123077</v>
       </c>
       <c r="B629" t="s">
         <v>1</v>
       </c>
-      <c r="C629" s="9">
+      <c r="C629">
         <v>8882230033</v>
       </c>
-      <c r="D629" s="10">
+      <c r="D629" s="2">
         <v>8882</v>
       </c>
       <c r="E629" s="1" t="str">
@@ -20089,16 +20086,16 @@
       </c>
     </row>
     <row r="630" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A630" s="8">
+      <c r="A630" s="3">
         <v>1005123015</v>
       </c>
       <c r="B630" t="s">
         <v>1</v>
       </c>
-      <c r="C630" s="9">
+      <c r="C630">
         <v>8882230029</v>
       </c>
-      <c r="D630" s="10">
+      <c r="D630" s="2">
         <v>8882</v>
       </c>
       <c r="E630" s="1" t="str">
@@ -20118,16 +20115,16 @@
       </c>
     </row>
     <row r="631" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A631" s="8">
+      <c r="A631" s="3">
         <v>1007123141</v>
       </c>
       <c r="B631" t="s">
         <v>0</v>
       </c>
-      <c r="C631" s="9">
+      <c r="C631">
         <v>3334230120</v>
       </c>
-      <c r="D631" s="10">
+      <c r="D631" s="2">
         <v>10208</v>
       </c>
       <c r="E631" s="1" t="str">
@@ -20147,16 +20144,16 @@
       </c>
     </row>
     <row r="632" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A632" s="8">
+      <c r="A632" s="3">
         <v>1007123144</v>
       </c>
       <c r="B632" t="s">
         <v>0</v>
       </c>
-      <c r="C632" s="9">
+      <c r="C632">
         <v>3331230121</v>
       </c>
-      <c r="D632" s="10">
+      <c r="D632" s="2">
         <v>10202</v>
       </c>
       <c r="E632" s="1" t="str">
@@ -20176,16 +20173,16 @@
       </c>
     </row>
     <row r="633" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A633" s="8">
+      <c r="A633" s="3">
         <v>1007123202</v>
       </c>
       <c r="B633" t="s">
         <v>1</v>
       </c>
-      <c r="C633" s="9">
+      <c r="C633">
         <v>8882230030</v>
       </c>
-      <c r="D633" s="10">
+      <c r="D633" s="2">
         <v>8882</v>
       </c>
       <c r="E633" s="1" t="str">
@@ -20205,16 +20202,16 @@
       </c>
     </row>
     <row r="634" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A634" s="8">
+      <c r="A634" s="3">
         <v>1005123041</v>
       </c>
       <c r="B634" t="s">
         <v>1</v>
       </c>
-      <c r="C634" s="9">
+      <c r="C634">
         <v>1111230457</v>
       </c>
-      <c r="D634" s="10">
+      <c r="D634" s="2">
         <v>20401</v>
       </c>
       <c r="E634" s="1" t="str">
@@ -20234,16 +20231,16 @@
       </c>
     </row>
     <row r="635" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A635" s="8">
+      <c r="A635" s="3">
         <v>9120123004</v>
       </c>
       <c r="B635" t="s">
         <v>1</v>
       </c>
-      <c r="C635" s="9">
+      <c r="C635">
         <v>2224230112</v>
       </c>
-      <c r="D635" s="10">
+      <c r="D635" s="2">
         <v>10710</v>
       </c>
       <c r="E635" s="1" t="str">
@@ -20263,16 +20260,16 @@
       </c>
     </row>
     <row r="636" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A636" s="8">
+      <c r="A636" s="3">
         <v>9120123013</v>
       </c>
       <c r="B636" t="s">
         <v>0</v>
       </c>
-      <c r="C636" s="9">
+      <c r="C636">
         <v>2227230091</v>
       </c>
-      <c r="D636" s="10">
+      <c r="D636" s="2">
         <v>20711</v>
       </c>
       <c r="E636" s="1" t="str">
@@ -20292,16 +20289,16 @@
       </c>
     </row>
     <row r="637" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A637" s="8">
+      <c r="A637" s="3">
         <v>9404123122</v>
       </c>
       <c r="B637" t="s">
         <v>0</v>
       </c>
-      <c r="C637" s="9">
+      <c r="C637">
         <v>6670230152</v>
       </c>
-      <c r="D637" s="10">
+      <c r="D637" s="2">
         <v>20204</v>
       </c>
       <c r="E637" s="1" t="str">
@@ -20321,16 +20318,16 @@
       </c>
     </row>
     <row r="638" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A638" s="8">
+      <c r="A638" s="3">
         <v>3123067</v>
       </c>
       <c r="B638" t="s">
         <v>1</v>
       </c>
-      <c r="C638" s="9">
+      <c r="C638">
         <v>8882230031</v>
       </c>
-      <c r="D638" s="10">
+      <c r="D638" s="2">
         <v>8882</v>
       </c>
       <c r="E638" s="1" t="str">
@@ -20350,16 +20347,16 @@
       </c>
     </row>
     <row r="639" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A639" s="8">
+      <c r="A639" s="3">
         <v>9406123043</v>
       </c>
       <c r="B639" t="s">
         <v>0</v>
       </c>
-      <c r="C639" s="9">
+      <c r="C639">
         <v>6670230153</v>
       </c>
-      <c r="D639" s="10">
+      <c r="D639" s="2">
         <v>20204</v>
       </c>
       <c r="E639" s="1" t="str">
@@ -20379,16 +20376,16 @@
       </c>
     </row>
     <row r="640" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A640" s="8">
+      <c r="A640" s="3">
         <v>9103123114</v>
       </c>
       <c r="B640" t="s">
         <v>1</v>
       </c>
-      <c r="C640" s="9">
+      <c r="C640">
         <v>3336230120</v>
       </c>
-      <c r="D640" s="10">
+      <c r="D640" s="2">
         <v>10203</v>
       </c>
       <c r="E640" s="1" t="str">
@@ -20408,16 +20405,16 @@
       </c>
     </row>
     <row r="641" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A641" s="8">
+      <c r="A641" s="3">
         <v>9208123034</v>
       </c>
       <c r="B641" t="s">
         <v>0</v>
       </c>
-      <c r="C641" s="9">
+      <c r="C641">
         <v>2223230117</v>
       </c>
-      <c r="D641" s="10">
+      <c r="D641" s="2">
         <v>20718</v>
       </c>
       <c r="E641" s="1" t="str">
@@ -20437,16 +20434,16 @@
       </c>
     </row>
     <row r="642" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A642" s="8">
+      <c r="A642" s="3">
         <v>9208123039</v>
       </c>
       <c r="B642" t="s">
         <v>1</v>
       </c>
-      <c r="C642" s="9">
+      <c r="C642">
         <v>2285230061</v>
       </c>
-      <c r="D642" s="10">
+      <c r="D642" s="2">
         <v>20712</v>
       </c>
       <c r="E642" s="1" t="str">
@@ -20461,21 +20458,21 @@
         <v>16</v>
       </c>
       <c r="H642" t="str">
-        <f t="shared" ref="H642:H643" si="10">IF(C642="","Calon Mahasiswa","Mahasiswa")</f>
+        <f t="shared" ref="H642:H644" si="10">IF(C642="","Calon Mahasiswa","Mahasiswa")</f>
         <v>Mahasiswa</v>
       </c>
     </row>
     <row r="643" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A643" s="8">
+      <c r="A643" s="3">
         <v>9208123076</v>
       </c>
       <c r="B643" t="s">
         <v>0</v>
       </c>
-      <c r="C643" s="9">
+      <c r="C643">
         <v>4443230168</v>
       </c>
-      <c r="D643" s="10">
+      <c r="D643" s="2">
         <v>10463</v>
       </c>
       <c r="E643" s="1" t="str">
@@ -20490,6 +20487,35 @@
         <v>16</v>
       </c>
       <c r="H643" t="str">
+        <f t="shared" si="10"/>
+        <v>Mahasiswa</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A644" s="3">
+        <v>23529876</v>
+      </c>
+      <c r="B644" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C644" s="6">
+        <v>7775230027</v>
+      </c>
+      <c r="D644" s="2">
+        <v>7775</v>
+      </c>
+      <c r="E644" s="1" t="str">
+        <f>UPPER(VLOOKUP(LEFT(C644,4)*1,[1]PRODI_2019!$F$1:$G$100,2,FALSE))</f>
+        <v>MAGISTER ADMINISTRASI PUBLIK</v>
+      </c>
+      <c r="F644" t="str">
+        <f>VLOOKUP(LEFT(C644,4)*1,[1]PRODI_2019!$F$2:$J$79,5,FALSE)</f>
+        <v>S2</v>
+      </c>
+      <c r="G644" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H644" t="str">
         <f t="shared" si="10"/>
         <v>Mahasiswa</v>
       </c>

--- a/data_lulus_diterima_umm.xlsx
+++ b/data_lulus_diterima_umm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\04_UMM\23umm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACA607C-AAE7-4663-9B0A-E9C2638F2748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B391BF94-9452-4007-B800-D34521FD029C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="17">
   <si>
     <t>L</t>
   </si>
@@ -2068,11 +2068,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H644"/>
+  <dimension ref="A1:H645"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A633" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H647" sqref="H647"/>
+      <selection pane="bottomLeft" activeCell="F651" sqref="F651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20458,7 +20458,7 @@
         <v>16</v>
       </c>
       <c r="H642" t="str">
-        <f t="shared" ref="H642:H644" si="10">IF(C642="","Calon Mahasiswa","Mahasiswa")</f>
+        <f t="shared" ref="H642:H645" si="10">IF(C642="","Calon Mahasiswa","Mahasiswa")</f>
         <v>Mahasiswa</v>
       </c>
     </row>
@@ -20516,6 +20516,35 @@
         <v>14</v>
       </c>
       <c r="H644" t="str">
+        <f t="shared" si="10"/>
+        <v>Mahasiswa</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A645" s="3">
+        <v>9106123163</v>
+      </c>
+      <c r="B645" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C645">
+        <v>5551230171</v>
+      </c>
+      <c r="D645" s="2">
+        <v>20102</v>
+      </c>
+      <c r="E645" s="1" t="str">
+        <f>UPPER(VLOOKUP(LEFT(C645,4)*1,[1]PRODI_2019!$F$1:$G$100,2,FALSE))</f>
+        <v>MANAJEMEN</v>
+      </c>
+      <c r="F645" t="str">
+        <f>VLOOKUP(LEFT(C645,4)*1,[1]PRODI_2019!$F$2:$J$79,5,FALSE)</f>
+        <v>S1</v>
+      </c>
+      <c r="G645" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H645" t="str">
         <f t="shared" si="10"/>
         <v>Mahasiswa</v>
       </c>
